--- a/ESPN sports website/IPL/Mumbai Indians/Daniel Sams.xlsx
+++ b/ESPN sports website/IPL/Mumbai Indians/Daniel Sams.xlsx
@@ -445,10 +445,10 @@
         <v>Daniel Sams</v>
       </c>
       <c r="C2" t="str">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D2" t="str">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -457,19 +457,19 @@
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <v>136.36</v>
+        <v>350.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I2" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>May 17, 2022</v>
+        <v>March 27, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Sunrisers won by 3 runs</v>
+        <v>Capitals won by 4 wickets (with 10 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -515,31 +515,31 @@
         <v>Daniel Sams</v>
       </c>
       <c r="C4" t="str">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>350.00</v>
+        <v>166.66</v>
       </c>
       <c r="H4" t="str">
-        <v>Delhi Capitals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I4" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J4" t="str">
-        <v>March 27, 2022</v>
+        <v>April 21, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Capitals won by 4 wickets (with 10 balls remaining)</v>
+        <v>Super Kings won by 3 wickets</v>
       </c>
     </row>
     <row r="5">
@@ -550,10 +550,10 @@
         <v>Daniel Sams</v>
       </c>
       <c r="C5" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="str">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>50.00</v>
+        <v>0.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I5" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J5" t="str">
-        <v>May 09, 2022</v>
+        <v>May 21, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>KKR won by 52 runs</v>
+        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="6">
@@ -620,10 +620,10 @@
         <v>Daniel Sams</v>
       </c>
       <c r="C7" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E7" t="str">
         <v>0</v>
@@ -632,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>42.85</v>
+        <v>0.00</v>
       </c>
       <c r="H7" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I7" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J7" t="str">
-        <v>April 24, 2022</v>
+        <v>May 06, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Super Giants won by 36 runs</v>
+        <v>Mumbai won by 5 runs</v>
       </c>
     </row>
     <row r="8">
@@ -655,31 +655,31 @@
         <v>Daniel Sams</v>
       </c>
       <c r="C8" t="str">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="str">
         <v>0</v>
       </c>
       <c r="G8" t="str">
-        <v>166.66</v>
+        <v>50.00</v>
       </c>
       <c r="H8" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I8" t="str">
         <v>DY Patil</v>
       </c>
       <c r="J8" t="str">
-        <v>April 21, 2022</v>
+        <v>May 09, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Super Kings won by 3 wickets</v>
+        <v>KKR won by 52 runs</v>
       </c>
     </row>
     <row r="9">
@@ -690,31 +690,31 @@
         <v>Daniel Sams</v>
       </c>
       <c r="C9" t="str">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D9" t="str">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E9" t="str">
         <v>0</v>
       </c>
       <c r="F9" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="str">
-        <v>0.00</v>
+        <v>136.36</v>
       </c>
       <c r="H9" t="str">
-        <v>Delhi Capitals</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I9" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J9" t="str">
-        <v>May 21, 2022</v>
+        <v>May 17, 2022</v>
       </c>
       <c r="K9" t="str">
-        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+        <v>Sunrisers won by 3 runs</v>
       </c>
     </row>
     <row r="10">
@@ -725,10 +725,10 @@
         <v>Daniel Sams</v>
       </c>
       <c r="C10" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E10" t="str">
         <v>0</v>
@@ -737,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="str">
-        <v>0.00</v>
+        <v>42.85</v>
       </c>
       <c r="H10" t="str">
-        <v>Gujarat Titans</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I10" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J10" t="str">
-        <v>May 06, 2022</v>
+        <v>April 24, 2022</v>
       </c>
       <c r="K10" t="str">
-        <v>Mumbai won by 5 runs</v>
+        <v>Super Giants won by 36 runs</v>
       </c>
     </row>
     <row r="11">
